--- a/ValueSet-HER2ReceptorStatusVS.xlsx
+++ b/ValueSet-HER2ReceptorStatusVS.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/ichom-breast-cancer/ValueSet/HER2ReceptorStatusVS</t>
+    <t>http://ig-ichombreastcancer.gabriellesantosleandro.com/ValueSet/HER2ReceptorStatusVS</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-15T00:28:22+00:00</t>
+    <t>2023-11-12T21:01:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HER2ReceptorStatusVS.xlsx
+++ b/ValueSet-HER2ReceptorStatusVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-12T21:01:00+00:00</t>
+    <t>2023-11-13T00:07:26-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HER2ReceptorStatusVS.xlsx
+++ b/ValueSet-HER2ReceptorStatusVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T00:07:26-03:00</t>
+    <t>2023-11-13T00:45:53-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-HER2ReceptorStatusVS.xlsx
+++ b/ValueSet-HER2ReceptorStatusVS.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-13T00:45:53-03:00</t>
+    <t>2023-11-13T01:02:30-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
